--- a/data_sources/north_devon/sample.xlsx
+++ b/data_sources/north_devon/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="48">
   <si>
     <t xml:space="preserve">x</t>
   </si>
@@ -55,94 +55,97 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
+    <t xml:space="preserve">BUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALKP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21/01/28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/05/43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBIL</t>
+  </si>
+  <si>
     <t xml:space="preserve">ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALKP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21/01/28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/05/43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GFR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLUX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBIL</t>
   </si>
   <si>
     <t xml:space="preserve">TP</t>
@@ -264,13 +267,10 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -373,40 +373,40 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="0" t="s">
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -420,40 +420,40 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>41.1</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="0" t="s">
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -461,46 +461,46 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>0.12</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="N5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -508,46 +508,46 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="0" t="s">
+      <c r="K6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -555,46 +555,46 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="H7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="0" t="s">
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="0" t="s">
+      <c r="K7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -602,46 +602,46 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>5.26</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -649,46 +649,46 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="0" t="n">
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="n">
         <v>642</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="0" t="s">
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="0" t="s">
+      <c r="K9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -696,46 +696,46 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="0" t="s">
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="0" t="s">
+      <c r="K10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -761,7 +761,7 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="1" t="n">
         <v>6.3</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -790,46 +790,46 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="0" t="s">
+      <c r="K12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -837,46 +837,46 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="0" t="s">
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="0" t="n">
+      <c r="K13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -884,46 +884,46 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="0" t="n">
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>41</v>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="0" t="n">
+      <c r="K14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -931,46 +931,46 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="0" t="n">
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>42</v>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="0" t="n">
+      <c r="K15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -978,50 +978,50 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="1" t="n">
         <v>6.46</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="0" t="s">
+      <c r="L16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>46</v>
+      <c r="N16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
